--- a/ResultadoEleicoesDistritos/SANTARÉM_ALCANENA.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_ALCANENA.xlsx
@@ -597,64 +597,64 @@
         <v>3436</v>
       </c>
       <c r="H2" t="n">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="I2" t="n">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J2" t="n">
-        <v>1387</v>
+        <v>1403</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="M2" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
         <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S2" t="n">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="T2" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V2" t="n">
-        <v>2205</v>
+        <v>2218</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2220</v>
+        <v>2185</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
